--- a/H_BimNote/gwm.xlsx
+++ b/H_BimNote/gwm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\H_BimNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{09EE8DA7-DD21-4FF1-A1B2-E2FEBD35157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{7AAC0F54-AA45-4AEA-A70F-691D64E34223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FDF9E1DF-FD82-431A-81FD-0DA8EDB491BB}"/>
+    <workbookView xWindow="30" yWindow="3510" windowWidth="28770" windowHeight="12480" xr2:uid="{FDF9E1DF-FD82-431A-81FD-0DA8EDB491BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928BDB23-B014-4B5C-A42C-6ED4D6651B21}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
